--- a/DATA/ALTR_stock_data.xlsx
+++ b/DATA/ALTR_stock_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1541"/>
+  <dimension ref="A1:G1542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35896,6 +35896,29 @@
         <v>313100</v>
       </c>
     </row>
+    <row r="1542">
+      <c r="A1542" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="B1542" t="n">
+        <v>74.66000366210938</v>
+      </c>
+      <c r="C1542" t="n">
+        <v>74.84999847412109</v>
+      </c>
+      <c r="D1542" t="n">
+        <v>73.375</v>
+      </c>
+      <c r="E1542" t="n">
+        <v>74.18000030517578</v>
+      </c>
+      <c r="F1542" t="n">
+        <v>74.18000030517578</v>
+      </c>
+      <c r="G1542" t="n">
+        <v>508800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
